--- a/_zwischenergebnisse/flora_zh_ap_grundlagen_1995.xlsx
+++ b/_zwischenergebnisse/flora_zh_ap_grundlagen_1995.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="zh_ap_grundlagen_1995" localSheetId="0">Tabelle1!$A$1:$H$3155</definedName>
@@ -9673,9 +9671,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -9985,43 +9986,44 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3193</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3194</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3195</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3196</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3197</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3198</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3199</v>
       </c>
     </row>
@@ -92031,29 +92033,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>